--- a/input_data/admin_data/CHL/gpinter_CHL_2020.xlsx
+++ b/input_data/admin_data/CHL/gpinter_CHL_2020.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t>year</t>
   </si>
@@ -198,6 +198,63 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -381,10 +438,124 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
     <t>postax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -626,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J80"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -634,31 +805,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="F1" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="G1" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="H1" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="I1" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="J1" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2">
@@ -666,31 +837,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="D2">
-        <v>1422022.9584317701</v>
+        <v>4001451.3044119701</v>
       </c>
       <c r="E2">
-        <v>0.67000000000000004</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="F2">
-        <v>46957.870495875002</v>
+        <v>64094.747868480503</v>
       </c>
       <c r="G2">
-        <v>0.99991032319829698</v>
+        <v>0.99993884157291801</v>
       </c>
       <c r="H2">
-        <v>4308774.0483664004</v>
+        <v>7694628.0422002701</v>
       </c>
       <c r="I2">
-        <v>92206.362103000807</v>
+        <v>107465.364480751</v>
       </c>
       <c r="J2">
-        <v>91.758293186334001</v>
+        <v>120.05083564708499</v>
       </c>
     </row>
     <row r="3">
@@ -698,29 +869,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>0.68000000000000005</v>
+        <v>0.48999999999999999</v>
       </c>
       <c r="F3">
-        <v>138797.94933338999</v>
+        <v>151642.14315036201</v>
       </c>
       <c r="G3">
-        <v>0.99926190636679502</v>
+        <v>0.99967027560445998</v>
       </c>
       <c r="H3">
-        <v>4440541.7885621302</v>
+        <v>7843395.9378418298</v>
       </c>
       <c r="I3">
-        <v>188171.305689954</v>
+        <v>197457.712856047</v>
       </c>
       <c r="J3">
-        <v>31.992848668794199</v>
+        <v>51.723061774883099</v>
       </c>
     </row>
     <row r="4">
@@ -728,29 +899,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>0.68999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>238984.329490078</v>
+        <v>244105.88338600201</v>
       </c>
       <c r="G4">
-        <v>0.99793864147452105</v>
+        <v>0.99917681036438999</v>
       </c>
       <c r="H4">
-        <v>4577715.0299450997</v>
+        <v>7996314.70234155</v>
       </c>
       <c r="I4">
-        <v>292777.19259280298</v>
+        <v>292445.53808241</v>
       </c>
       <c r="J4">
-        <v>19.154875299617299</v>
+        <v>32.757566476581196</v>
       </c>
     </row>
     <row r="5">
@@ -758,29 +929,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>0.69999999999999996</v>
+        <v>0.51000000000000001</v>
       </c>
       <c r="F5">
-        <v>348111.18742342998</v>
+        <v>341644.01807653002</v>
       </c>
       <c r="G5">
-        <v>0.99587976337514295</v>
+        <v>0.99844596169015998</v>
       </c>
       <c r="H5">
-        <v>4720546.29119018</v>
+        <v>8153536.5220203102</v>
       </c>
       <c r="I5">
-        <v>406632.66631538398</v>
+        <v>392586.09147970699</v>
       </c>
       <c r="J5">
-        <v>13.560455572053399</v>
+        <v>23.8655913483428</v>
       </c>
     </row>
     <row r="6">
@@ -788,29 +959,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>0.70999999999999996</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="F6">
-        <v>466801.39514579298</v>
+        <v>444412.84109291498</v>
       </c>
       <c r="G6">
-        <v>0.99302022679801305</v>
+        <v>0.99746485243350902</v>
       </c>
       <c r="H6">
-        <v>4869301.9334272398</v>
+        <v>8315222.9893232398</v>
       </c>
       <c r="I6">
-        <v>530374.19789349905</v>
+        <v>498034.370642088</v>
       </c>
       <c r="J6">
-        <v>10.431206898827799</v>
+        <v>18.7105821894664</v>
       </c>
     </row>
     <row r="7">
@@ -818,29 +989,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="D7"/>
       <c r="E7">
-        <v>0.71999999999999997</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="F7">
-        <v>595704.62375446898</v>
+        <v>552565.87386380904</v>
       </c>
       <c r="G7">
-        <v>0.98929051065842</v>
+        <v>0.99622021809273098</v>
       </c>
       <c r="H7">
-        <v>5024263.6382677304</v>
+        <v>8481546.1514228396</v>
       </c>
       <c r="I7">
-        <v>664663.66526418703</v>
+        <v>608942.03908451204</v>
       </c>
       <c r="J7">
-        <v>8.4341524942377699</v>
+        <v>15.349384666330799</v>
       </c>
     </row>
     <row r="8">
@@ -848,29 +1019,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="D8"/>
       <c r="E8">
-        <v>0.72999999999999998</v>
+        <v>0.54000000000000004</v>
       </c>
       <c r="F8">
-        <v>735494.35380368505</v>
+        <v>666252.71981053497</v>
       </c>
       <c r="G8">
-        <v>0.98461643939027998</v>
+        <v>0.99469841514485302</v>
       </c>
       <c r="H8">
-        <v>5185730.3039345304</v>
+        <v>8652689.7190823592</v>
       </c>
       <c r="I8">
-        <v>810184.69460487703</v>
+        <v>725456.21216891101</v>
       </c>
       <c r="J8">
-        <v>7.0506731657639303</v>
+        <v>12.987098531534601</v>
       </c>
     </row>
     <row r="9">
@@ -878,29 +1049,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>0.73999999999999999</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F9">
-        <v>886863.49195492803</v>
+        <v>785617.78012404498</v>
       </c>
       <c r="G9">
-        <v>0.978919030007394</v>
+        <v>0.99288543241189098</v>
       </c>
       <c r="H9">
-        <v>5354020.5196779799</v>
+        <v>8828850.4636804406</v>
       </c>
       <c r="I9">
-        <v>967637.42820247205</v>
+        <v>847718.09955778497</v>
       </c>
       <c r="J9">
-        <v>6.0370288869102202</v>
+        <v>11.2380990948123</v>
       </c>
     </row>
     <row r="10">
@@ -908,29 +1079,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="D10"/>
       <c r="E10">
-        <v>0.75</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F10">
-        <v>1050518.2211034901</v>
+        <v>910798.82140529901</v>
       </c>
       <c r="G10">
-        <v>0.97211437595828099</v>
+        <v>0.99076690581974403</v>
       </c>
       <c r="H10">
-        <v>5529475.8433370003</v>
+        <v>9010239.8355923202</v>
       </c>
       <c r="I10">
-        <v>1137731.30330041</v>
+        <v>975861.49519047304</v>
       </c>
       <c r="J10">
-        <v>5.2635696671007901</v>
+        <v>9.8926784091465407</v>
       </c>
     </row>
     <row r="11">
@@ -938,29 +1109,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="D11"/>
       <c r="E11">
-        <v>0.76000000000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F11">
-        <v>1227169.62272289</v>
+        <v>1041925.38662499</v>
       </c>
       <c r="G11">
-        <v>0.96411358176185502</v>
+        <v>0.98832813693077903</v>
       </c>
       <c r="H11">
-        <v>5712465.1991718505</v>
+        <v>9197085.8435086403</v>
       </c>
       <c r="I11">
-        <v>1321175.3285269199</v>
+        <v>1110011.1069104299</v>
       </c>
       <c r="J11">
-        <v>4.6549923444949899</v>
+        <v>8.8270100350466407</v>
       </c>
     </row>
     <row r="12">
@@ -968,29 +1139,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>0.77000000000000002</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F12">
-        <v>1417522.50243189</v>
+        <v>1179117.0425096699</v>
       </c>
       <c r="G12">
-        <v>0.95482276602155303</v>
+        <v>0.98555411565083395</v>
       </c>
       <c r="H12">
-        <v>5903390.8457216304</v>
+        <v>9389635.2419990692</v>
       </c>
       <c r="I12">
-        <v>1518665.2258272399</v>
+        <v>1250280.7201875199</v>
       </c>
       <c r="J12">
-        <v>4.1645835149663002</v>
+        <v>7.9632766752432502</v>
       </c>
     </row>
     <row r="13">
@@ -998,29 +1169,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="D13"/>
       <c r="E13">
-        <v>0.78000000000000003</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="F13">
-        <v>1622260.71962882</v>
+        <v>1322481.45911282</v>
       </c>
       <c r="G13">
-        <v>0.94414315486040801</v>
+        <v>0.98242954752524203</v>
       </c>
       <c r="H13">
-        <v>6102696.5557168303</v>
+        <v>9588156.0839944798</v>
       </c>
       <c r="I13">
-        <v>1730866.6632916101</v>
+        <v>1396771.1934577201</v>
       </c>
       <c r="J13">
-        <v>3.7618469595399899</v>
+        <v>7.2501251476347202</v>
       </c>
     </row>
     <row r="14">
@@ -1028,29 +1199,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D14"/>
       <c r="E14">
-        <v>0.79000000000000004</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F14">
-        <v>1842028.16677738</v>
+        <v>1472112.32137611</v>
       </c>
       <c r="G14">
-        <v>0.93197129326683403</v>
+        <v>0.97893888604469903</v>
       </c>
       <c r="H14">
-        <v>6310878.9315466098</v>
+        <v>9792940.7062579002</v>
       </c>
       <c r="I14">
-        <v>1958393.63589398</v>
+        <v>1549568.2877882801</v>
       </c>
       <c r="J14">
-        <v>3.4260490938026602</v>
+        <v>6.6523053737527302</v>
       </c>
     </row>
     <row r="15">
@@ -1058,29 +1229,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>0.80000000000000004</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="F15">
-        <v>2077404.3625252501</v>
+        <v>1628087.07847276</v>
       </c>
       <c r="G15">
-        <v>0.91819940847213499</v>
+        <v>0.97506637037499799</v>
       </c>
       <c r="H15">
-        <v>6528503.1963292398</v>
+        <v>10004309.229808399</v>
       </c>
       <c r="I15">
-        <v>2201780.8576974799</v>
+        <v>1708740.3407010599</v>
       </c>
       <c r="J15">
-        <v>3.1426251499700002</v>
+        <v>6.1448244151615201</v>
       </c>
     </row>
     <row r="16">
@@ -1088,29 +1259,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="D16"/>
       <c r="E16">
-        <v>0.81000000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="F16">
-        <v>2328873.4183518402</v>
+        <v>1790464.5454080901</v>
       </c>
       <c r="G16">
-        <v>0.90271596747252103</v>
+        <v>0.97079606890008796</v>
       </c>
       <c r="H16">
-        <v>6756225.42467828</v>
+        <v>10222613.674258601</v>
       </c>
       <c r="I16">
-        <v>2461448.8175569898</v>
+        <v>1874335.8044595299</v>
       </c>
       <c r="J16">
-        <v>2.90107026489216</v>
+        <v>5.7094756221093501</v>
       </c>
     </row>
     <row r="17">
@@ -1118,29 +1289,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="D17"/>
       <c r="E17">
-        <v>0.81999999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="F17">
-        <v>2596784.92312221</v>
+        <v>1959282.38379543</v>
       </c>
       <c r="G17">
-        <v>0.88540648028764801</v>
+        <v>0.966111928917195</v>
       </c>
       <c r="H17">
-        <v>6994824.1250739098</v>
+        <v>10448242.8058748</v>
       </c>
       <c r="I17">
-        <v>2737659.9416456898</v>
+        <v>2046380.6841175701</v>
       </c>
       <c r="J17">
-        <v>2.6936478499974399</v>
+        <v>5.3326885865400104</v>
       </c>
     </row>
     <row r="18">
@@ -1148,29 +1319,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>0.82999999999999996</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="F18">
-        <v>2881305.0957647702</v>
+        <v>2134554.5064169802</v>
       </c>
       <c r="G18">
-        <v>0.86615461149458095</v>
+        <v>0.96099783273448902</v>
       </c>
       <c r="H18">
-        <v>7245245.5476285098</v>
+        <v>10681627.864812501</v>
       </c>
       <c r="I18">
-        <v>3030464.1506973598</v>
+        <v>2224875.9317060201</v>
       </c>
       <c r="J18">
-        <v>2.5145707611034598</v>
+        <v>5.0041485624756703</v>
       </c>
     </row>
     <row r="19">
@@ -1178,29 +1349,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="D19"/>
       <c r="E19">
-        <v>0.83999999999999997</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="F19">
-        <v>3182356.4572378602</v>
+        <v>2316268.4752353099</v>
       </c>
       <c r="G19">
-        <v>0.84484367461604204</v>
+        <v>0.95543766028092803</v>
       </c>
       <c r="H19">
-        <v>7508669.3849366996</v>
+        <v>10923249.348615499</v>
       </c>
       <c r="I19">
-        <v>3339632.1106602699</v>
+        <v>2409794.88294621</v>
       </c>
       <c r="J19">
-        <v>2.3594683643496999</v>
+        <v>4.7158822327389602</v>
       </c>
     </row>
     <row r="20">
@@ -1208,29 +1379,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D20"/>
       <c r="E20">
-        <v>0.84999999999999998</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="F20">
-        <v>3499544.43271292</v>
+        <v>2504382.9979540901</v>
       </c>
       <c r="G20">
-        <v>0.82135859590575699</v>
+        <v>0.94941535812198496</v>
       </c>
       <c r="H20">
-        <v>7786605.2032217998</v>
+        <v>11173645.068194</v>
       </c>
       <c r="I20">
-        <v>3664574.9015097902</v>
+        <v>2601080.8651599302</v>
       </c>
       <c r="J20">
-        <v>2.2250339588303101</v>
+        <v>4.4616358908849696</v>
       </c>
     </row>
     <row r="21">
@@ -1238,29 +1409,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>0.85999999999999999</v>
+        <v>0.67000000000000004</v>
       </c>
       <c r="F21">
-        <v>3832070.0729008601</v>
+        <v>2698825.6783674601</v>
       </c>
       <c r="G21">
-        <v>0.79558844304162102</v>
+        <v>0.94291501445344705</v>
       </c>
       <c r="H21">
-        <v>8081035.93905837</v>
+        <v>11433419.7410133</v>
       </c>
       <c r="I21">
-        <v>4004250.2192819202</v>
+        <v>2798645.1651991899</v>
       </c>
       <c r="J21">
-        <v>2.1087912760794199</v>
+        <v>4.2364424766883904</v>
       </c>
     </row>
     <row r="22">
@@ -1268,29 +1439,29 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="D22"/>
       <c r="E22">
-        <v>0.87</v>
+        <v>0.68000000000000005</v>
       </c>
       <c r="F22">
-        <v>4178630.2783984202</v>
+        <v>2899491.24686273</v>
       </c>
       <c r="G22">
-        <v>0.76742961342822302</v>
+        <v>0.93592093917352703</v>
       </c>
       <c r="H22">
-        <v>8394634.8405796308</v>
+        <v>11703256.4465074</v>
       </c>
       <c r="I22">
-        <v>4357058.8187619504</v>
+        <v>3002365.63125489</v>
       </c>
       <c r="J22">
-        <v>2.0089441470751801</v>
+        <v>4.0363137702762302</v>
       </c>
     </row>
     <row r="23">
@@ -1298,29 +1469,29 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D23"/>
       <c r="E23">
-        <v>0.88</v>
+        <v>0.68999999999999995</v>
       </c>
       <c r="F23">
-        <v>4537312.3451336799</v>
+        <v>3106240.5987212299</v>
       </c>
       <c r="G23">
-        <v>0.73678975073875597</v>
+        <v>0.92841774744920302</v>
       </c>
       <c r="H23">
-        <v>8731099.5090644397</v>
+        <v>11983930.3437737</v>
       </c>
       <c r="I23">
-        <v>4720743.5813856097</v>
+        <v>3212086.3044743598</v>
       </c>
       <c r="J23">
-        <v>1.9242888399403799</v>
+        <v>3.8580174210288698</v>
       </c>
     </row>
     <row r="24">
@@ -1328,29 +1499,29 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>0.89000000000000001</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="F24">
-        <v>4905502.6411794601</v>
+        <v>3318901.1128111798</v>
       </c>
       <c r="G24">
-        <v>0.70359237123518104</v>
+        <v>0.92039044420317095</v>
       </c>
       <c r="H24">
-        <v>9095677.3206716105</v>
+        <v>12276325.145083601</v>
       </c>
       <c r="I24">
-        <v>5092324.37440605</v>
+        <v>3427618.6508395802</v>
       </c>
       <c r="J24">
-        <v>1.8541784575381799</v>
+        <v>3.6989126002266901</v>
       </c>
     </row>
     <row r="25">
@@ -1358,29 +1529,29 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="D25"/>
       <c r="E25">
-        <v>0.90000000000000002</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="F25">
-        <v>5279860.5216703201</v>
+        <v>3537268.9320230698</v>
       </c>
       <c r="G25">
-        <v>0.667781948174066</v>
+        <v>0.91182450552222205</v>
       </c>
       <c r="H25">
-        <v>9496012.6152981706</v>
+        <v>12581452.955229999</v>
       </c>
       <c r="I25">
-        <v>5468152.8147646198</v>
+        <v>3648745.2166807498</v>
       </c>
       <c r="J25">
-        <v>1.79853474846984</v>
+        <v>3.5568268053722099</v>
       </c>
     </row>
     <row r="26">
@@ -1388,29 +1559,29 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="D26"/>
       <c r="E26">
-        <v>0.91000000000000003</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="F26">
-        <v>5656486.5714753903</v>
+        <v>3761114.18961355</v>
       </c>
       <c r="G26">
-        <v>0.62932861109999305</v>
+        <v>0.90270595093014805</v>
       </c>
       <c r="H26">
-        <v>9943552.5931352302</v>
+        <v>12900478.2316067</v>
       </c>
       <c r="I26">
-        <v>5844301.8467639899</v>
+        <v>3875226.8992401301</v>
       </c>
       <c r="J26">
-        <v>1.75790262515228</v>
+        <v>3.4299618626926698</v>
       </c>
     </row>
     <row r="27">
@@ -1418,29 +1589,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>0.92000000000000004</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="F27">
-        <v>6031619.4584698305</v>
+        <v>3990190.6084989901</v>
       </c>
       <c r="G27">
-        <v>0.58823010553712096</v>
+        <v>0.89302139749083098</v>
       </c>
       <c r="H27">
-        <v>10455958.9364316</v>
+        <v>13234746.7994722</v>
       </c>
       <c r="I27">
-        <v>6217863.7503608903</v>
+        <v>4106815.5647567301</v>
       </c>
       <c r="J27">
-        <v>1.7335243061047201</v>
+        <v>3.3168206980595198</v>
       </c>
     </row>
     <row r="28">
@@ -1448,29 +1619,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="D28"/>
       <c r="E28">
-        <v>0.93000000000000005</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="F28">
-        <v>6403776.98294893</v>
+        <v>4224251.5541446405</v>
       </c>
       <c r="G28">
-        <v>0.544504624781044</v>
+        <v>0.88275808237756603</v>
       </c>
       <c r="H28">
-        <v>11061401.105870301</v>
+        <v>13585821.077730499</v>
       </c>
       <c r="I28">
-        <v>6590802.7528188396</v>
+        <v>4343274.5490980502</v>
       </c>
       <c r="J28">
-        <v>1.7273245360235101</v>
+        <v>3.21614868423275</v>
       </c>
     </row>
     <row r="29">
@@ -1478,29 +1649,29 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="D29"/>
       <c r="E29">
-        <v>0.93999999999999995</v>
+        <v>0.75</v>
       </c>
       <c r="F29">
-        <v>6780067.2938502496</v>
+        <v>4463075.5958884396</v>
       </c>
       <c r="G29">
-        <v>0.49815654921911801</v>
+        <v>0.871903834209385</v>
       </c>
       <c r="H29">
-        <v>11806500.8313789</v>
+        <v>13955522.938875699</v>
       </c>
       <c r="I29">
-        <v>6981587.9028088097</v>
+        <v>4584410.7789547797</v>
       </c>
       <c r="J29">
-        <v>1.74135452049094</v>
+        <v>3.1268847320740201</v>
       </c>
     </row>
     <row r="30">
@@ -1508,29 +1679,29 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>0.94999999999999996</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="F30">
-        <v>7195749.7996365102</v>
+        <v>4706506.09923012</v>
       </c>
       <c r="G30">
-        <v>0.44906038054327502</v>
+        <v>0.86044696411352695</v>
       </c>
       <c r="H30">
-        <v>12771483.417092901</v>
+        <v>14345985.9455391</v>
       </c>
       <c r="I30">
-        <v>7463558.87553134</v>
+        <v>4830124.07517948</v>
       </c>
       <c r="J30">
-        <v>1.77486485393615</v>
+        <v>3.04811799731563</v>
       </c>
     </row>
     <row r="31">
@@ -1538,29 +1709,29 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="D31"/>
       <c r="E31">
-        <v>0.95999999999999996</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="F31">
-        <v>7782041.7307532197</v>
+        <v>4954511.6083777398</v>
       </c>
       <c r="G31">
-        <v>0.39657487859496499</v>
+        <v>0.84837603357426505</v>
       </c>
       <c r="H31">
-        <v>14098464.5524833</v>
+        <v>14759719.0703374</v>
       </c>
       <c r="I31">
-        <v>8307694.5297690602</v>
+        <v>5080481.9969988298</v>
       </c>
       <c r="J31">
-        <v>1.8116665317751599</v>
+        <v>2.9790462182750201</v>
       </c>
     </row>
     <row r="32">
@@ -1568,29 +1739,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="D32"/>
       <c r="E32">
-        <v>0.96999999999999997</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F32">
-        <v>9010741.8514957801</v>
+        <v>5207277.2293567397</v>
       </c>
       <c r="G32">
-        <v>0.33815321612805899</v>
+        <v>0.83567943523906296</v>
       </c>
       <c r="H32">
-        <v>16028721.2267214</v>
+        <v>15199684.3918528</v>
       </c>
       <c r="I32">
-        <v>10152463.2156073</v>
+        <v>5335832.9315726403</v>
       </c>
       <c r="J32">
-        <v>1.77884590313289</v>
+        <v>2.91893128066285</v>
       </c>
     </row>
     <row r="33">
@@ -1598,29 +1769,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>0.97999999999999998</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="F33">
-        <v>11529016.943796</v>
+        <v>5465342.6183577804</v>
       </c>
       <c r="G33">
-        <v>0.266758706247546</v>
+        <v>0.82234469110338104</v>
       </c>
       <c r="H33">
-        <v>18966850.232278399</v>
+        <v>15669391.604247</v>
       </c>
       <c r="I33">
-        <v>13289197.5393782</v>
+        <v>5596976.9765015598</v>
       </c>
       <c r="J33">
-        <v>1.64514028600547</v>
+        <v>2.8670465327488199</v>
       </c>
     </row>
     <row r="34">
@@ -1628,29 +1799,29 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="D34"/>
       <c r="E34">
-        <v>0.98999999999999999</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F34">
-        <v>15163502.5336519</v>
+        <v>5729810.7292062296</v>
       </c>
       <c r="G34">
-        <v>0.17330594262948401</v>
+        <v>0.80835732364415303</v>
       </c>
       <c r="H34">
-        <v>24644502.925178502</v>
+        <v>16173012.3356343</v>
       </c>
       <c r="I34">
-        <v>15372352.6035136</v>
+        <v>5865425.0924060103</v>
       </c>
       <c r="J34">
-        <v>1.6252513474697401</v>
+        <v>2.8226084769600801</v>
       </c>
     </row>
     <row r="35">
@@ -1658,29 +1829,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="D35"/>
       <c r="E35">
-        <v>0.99099999999999999</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="F35">
-        <v>15588533.807626</v>
+        <v>6002665.2204543501</v>
       </c>
       <c r="G35">
-        <v>0.16249574261663299</v>
+        <v>0.79369907930680805</v>
       </c>
       <c r="H35">
-        <v>25674741.849808</v>
+        <v>16715516.927383199</v>
       </c>
       <c r="I35">
-        <v>15827491.2163599</v>
+        <v>6143794.7195535898</v>
       </c>
       <c r="J35">
-        <v>1.6470273706721299</v>
+        <v>2.7846825224275902</v>
       </c>
     </row>
     <row r="36">
@@ -1688,29 +1859,29 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>0.99199999999999999</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="F36">
-        <v>16083433.889438501</v>
+        <v>6287256.8618820496</v>
       </c>
       <c r="G36">
-        <v>0.15136547842327899</v>
+        <v>0.77834516330943104</v>
       </c>
       <c r="H36">
-        <v>26905648.178989001</v>
+        <v>17302834.8278182</v>
       </c>
       <c r="I36">
-        <v>16391598.285631901</v>
+        <v>6436419.2153277798</v>
       </c>
       <c r="J36">
-        <v>1.6728795830508001</v>
+        <v>2.7520483428505398</v>
       </c>
     </row>
     <row r="37">
@@ -1718,29 +1889,29 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="D37"/>
       <c r="E37">
-        <v>0.99299999999999999</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F37">
-        <v>16738545.6760257</v>
+        <v>6589056.4803646496</v>
       </c>
       <c r="G37">
-        <v>0.13983852086718701</v>
+        <v>0.762259951405862</v>
       </c>
       <c r="H37">
-        <v>28407655.3066114</v>
+        <v>17942035.746199898</v>
       </c>
       <c r="I37">
-        <v>17205188.595637999</v>
+        <v>6750297.2267709998</v>
       </c>
       <c r="J37">
-        <v>1.6971399939063501</v>
+        <v>2.72300530427492</v>
       </c>
     </row>
     <row r="38">
@@ -1748,29 +1919,29 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="D38"/>
       <c r="E38">
-        <v>0.99399999999999999</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="F38">
-        <v>17761447.915113799</v>
+        <v>6916834.6246978398</v>
       </c>
       <c r="G38">
-        <v>0.12773942746393299</v>
+        <v>0.74539032907826297</v>
       </c>
       <c r="H38">
-        <v>30274733.0917737</v>
+        <v>18641519.403664201</v>
       </c>
       <c r="I38">
-        <v>18592335.9242777</v>
+        <v>7096590.8971096799</v>
       </c>
       <c r="J38">
-        <v>1.7045194308743199</v>
+        <v>2.6950939866483501</v>
       </c>
     </row>
     <row r="39">
@@ -1778,29 +1949,29 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="D39"/>
       <c r="E39">
-        <v>0.995</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="F39">
-        <v>19603918.431513902</v>
+        <v>7284535.2122406801</v>
       </c>
       <c r="G39">
-        <v>0.11466485942406</v>
+        <v>0.72765528657184797</v>
       </c>
       <c r="H39">
-        <v>32611212.525272898</v>
+        <v>19411181.304101199</v>
       </c>
       <c r="I39">
-        <v>20949211.330295999</v>
+        <v>7493024.4087885898</v>
       </c>
       <c r="J39">
-        <v>1.6635048058988799</v>
+        <v>2.6647110266532001</v>
       </c>
     </row>
     <row r="40">
@@ -1808,29 +1979,29 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="D40"/>
       <c r="E40">
-        <v>0.996</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F40">
-        <v>22421966.2833515</v>
+        <v>7714295.9940442899</v>
       </c>
       <c r="G40">
-        <v>0.099932881148969505</v>
+        <v>0.70892951974687901</v>
       </c>
       <c r="H40">
-        <v>35526712.824017003</v>
+        <v>20262478.225195002</v>
       </c>
       <c r="I40">
-        <v>23991471.3417692</v>
+        <v>7967782.9789514001</v>
       </c>
       <c r="J40">
-        <v>1.5844601840471</v>
+        <v>2.6266140475862398</v>
       </c>
     </row>
     <row r="41">
@@ -1838,29 +2009,29 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="D41"/>
       <c r="E41">
-        <v>0.997</v>
+        <v>0.87</v>
       </c>
       <c r="F41">
-        <v>25497449.520791501</v>
+        <v>8241393.57448221</v>
       </c>
       <c r="G41">
-        <v>0.083061514059209404</v>
+        <v>0.68901728697731801</v>
       </c>
       <c r="H41">
-        <v>39371793.318099603</v>
+        <v>21208224.013367601</v>
       </c>
       <c r="I41">
-        <v>26598866.445794001</v>
+        <v>8563220.2799175791</v>
       </c>
       <c r="J41">
-        <v>1.5441463384796399</v>
+        <v>2.5733783760836899</v>
       </c>
     </row>
     <row r="42">
@@ -1868,29 +2039,29 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="D42"/>
       <c r="E42">
-        <v>0.998</v>
+        <v>0.88</v>
       </c>
       <c r="F42">
-        <v>27431810.5453608</v>
+        <v>8910732.9178065807</v>
       </c>
       <c r="G42">
-        <v>0.064356565388670503</v>
+        <v>0.66761700085993902</v>
       </c>
       <c r="H42">
-        <v>45758256.754252397</v>
+        <v>22261974.324488401</v>
       </c>
       <c r="I42">
-        <v>30197910.335850801</v>
+        <v>9309033.2316492703</v>
       </c>
       <c r="J42">
-        <v>1.6680727901130401</v>
+        <v>2.4983325759884099</v>
       </c>
     </row>
     <row r="43">
@@ -1898,29 +2069,29 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="D43"/>
       <c r="E43">
-        <v>0.999</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="F43">
-        <v>37585977.534772202</v>
+        <v>9732149.9702759795</v>
       </c>
       <c r="G43">
-        <v>0.043120684380705897</v>
+        <v>0.64435285861888403</v>
       </c>
       <c r="H43">
-        <v>61318603.1726541</v>
+        <v>23439514.423837401</v>
       </c>
       <c r="I43">
-        <v>38617147.086557999</v>
+        <v>10202730.3744446</v>
       </c>
       <c r="J43">
-        <v>1.6314223333935101</v>
+        <v>2.4084621070808199</v>
       </c>
     </row>
     <row r="44">
@@ -1928,29 +2099,29 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="D44"/>
       <c r="E44">
-        <v>0.99909999999999999</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F44">
-        <v>39556653.558222704</v>
+        <v>10695569.124182301</v>
       </c>
       <c r="G44">
-        <v>0.040405035743841397</v>
+        <v>0.61885528386845501</v>
       </c>
       <c r="H44">
-        <v>63840987.182219997</v>
+        <v>24763192.828776699</v>
       </c>
       <c r="I44">
-        <v>40252927.468625203</v>
+        <v>11228703.5587229</v>
       </c>
       <c r="J44">
-        <v>1.6139127413357599</v>
+        <v>2.31527584378731</v>
       </c>
     </row>
     <row r="45">
@@ -1958,29 +2129,29 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="D45"/>
       <c r="E45">
-        <v>0.99919999999999998</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F45">
-        <v>40804881.773998499</v>
+        <v>11779440.233351599</v>
       </c>
       <c r="G45">
-        <v>0.0375743551820443</v>
+        <v>0.59079370644442897</v>
       </c>
       <c r="H45">
-        <v>66789494.646419004</v>
+        <v>26267024.969893798</v>
       </c>
       <c r="I45">
-        <v>41070348.268415503</v>
+        <v>12359163.324937001</v>
       </c>
       <c r="J45">
-        <v>1.63680157232997</v>
+        <v>2.22990434600813</v>
       </c>
     </row>
     <row r="46">
@@ -1988,29 +2159,29 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="D46"/>
       <c r="E46">
-        <v>0.99929999999999997</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="F46">
-        <v>41223485.741820097</v>
+        <v>12950052.417968299</v>
       </c>
       <c r="G46">
-        <v>0.034686191666477399</v>
+        <v>0.55990700463373799</v>
       </c>
       <c r="H46">
-        <v>70463658.414704606</v>
+        <v>28005507.675513402</v>
       </c>
       <c r="I46">
-        <v>41386413.693842098</v>
+        <v>13557186.0181212</v>
       </c>
       <c r="J46">
-        <v>1.70930859306789</v>
+        <v>2.1625787117784601</v>
       </c>
     </row>
     <row r="47">
@@ -2018,29 +2189,29 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="D47"/>
       <c r="E47">
-        <v>0.99939999999999996</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="F47">
-        <v>41775779.099786296</v>
+        <v>14170336.4265607</v>
       </c>
       <c r="G47">
-        <v>0.0317758016865941</v>
+        <v>0.52602633238071494</v>
       </c>
       <c r="H47">
-        <v>75309865.868180797</v>
+        <v>30069553.626569401</v>
       </c>
       <c r="I47">
-        <v>43538875.952673398</v>
+        <v>14799022.456063</v>
       </c>
       <c r="J47">
-        <v>1.80271601131111</v>
+        <v>2.1220070378997802</v>
       </c>
     </row>
     <row r="48">
@@ -2048,29 +2219,29 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="D48"/>
       <c r="E48">
-        <v>0.99950000000000006</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F48">
-        <v>46320932.055124499</v>
+        <v>15442676.496469401</v>
       </c>
       <c r="G48">
-        <v>0.0287140454966178</v>
+        <v>0.48904219505097801</v>
       </c>
       <c r="H48">
-        <v>81664063.851280794</v>
+        <v>32614642.154987101</v>
       </c>
       <c r="I48">
-        <v>49795851.049277604</v>
+        <v>16165805.1577386</v>
       </c>
       <c r="J48">
-        <v>1.76300562678868</v>
+        <v>2.1119811816587402</v>
       </c>
     </row>
     <row r="49">
@@ -2078,29 +2249,29 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="D49"/>
       <c r="E49">
-        <v>0.99960000000000004</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F49">
-        <v>52760460.601853997</v>
+        <v>16976447.2784549</v>
       </c>
       <c r="G49">
-        <v>0.025212284097196599</v>
+        <v>0.44864234027849997</v>
       </c>
       <c r="H49">
-        <v>89631117.051779494</v>
+        <v>35904409.5544369</v>
       </c>
       <c r="I49">
-        <v>54502358.404928297</v>
+        <v>18198384.709305201</v>
       </c>
       <c r="J49">
-        <v>1.69883120862349</v>
+        <v>2.1149542637229999</v>
       </c>
     </row>
     <row r="50">
@@ -2108,29 +2279,29 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="D50"/>
       <c r="E50">
-        <v>0.99970000000000003</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="F50">
-        <v>57188090.740612403</v>
+        <v>19798218.761849999</v>
       </c>
       <c r="G50">
-        <v>0.021379550027622301</v>
+        <v>0.40316287964070602</v>
       </c>
       <c r="H50">
-        <v>101340703.26741</v>
+        <v>40330915.765719697</v>
       </c>
       <c r="I50">
-        <v>64275185.725337297</v>
+        <v>22186621.840273999</v>
       </c>
       <c r="J50">
-        <v>1.77205956616142</v>
+        <v>2.0370981981184602</v>
       </c>
     </row>
     <row r="51">
@@ -2138,29 +2309,29 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="D51"/>
       <c r="E51">
-        <v>0.99980000000000002</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="F51">
-        <v>72418460.914321005</v>
+        <v>24857187.171263698</v>
       </c>
       <c r="G51">
-        <v>0.0168595677485587</v>
+        <v>0.34771644245475097</v>
       </c>
       <c r="H51">
-        <v>119873462.038445</v>
+        <v>46379013.7408683</v>
       </c>
       <c r="I51">
-        <v>80105458.684030801</v>
+        <v>27739118.1534281</v>
       </c>
       <c r="J51">
-        <v>1.65528872783238</v>
+        <v>1.86581906558137</v>
       </c>
     </row>
     <row r="52">
@@ -2168,29 +2339,29 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="D52"/>
       <c r="E52">
-        <v>0.99990000000000001</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="F52">
-        <v>89762902.694427699</v>
+        <v>30702980.9390155</v>
       </c>
       <c r="G52">
-        <v>0.0112263634314946</v>
+        <v>0.278393799135705</v>
       </c>
       <c r="H52">
-        <v>159641465.39286</v>
+        <v>55698961.534588397</v>
       </c>
       <c r="I52">
-        <v>91568222.252272204</v>
+        <v>36426339.4535776</v>
       </c>
       <c r="J52">
-        <v>1.7784793116184501</v>
+        <v>1.81412227188043</v>
       </c>
     </row>
     <row r="53">
@@ -2198,29 +2369,29 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="D53"/>
       <c r="E53">
-        <v>0.99990999999999997</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="F53">
-        <v>93565460.251645699</v>
+        <v>43711947.012432002</v>
       </c>
       <c r="G53">
-        <v>0.010582434149559301</v>
+        <v>0.18736097958492301</v>
       </c>
       <c r="H53">
-        <v>167205159.07510999</v>
+        <v>74971583.6155992</v>
       </c>
       <c r="I53">
-        <v>96036053.755187005</v>
+        <v>44302374.835465699</v>
       </c>
       <c r="J53">
-        <v>1.7870393479111799</v>
+        <v>1.71512798536008</v>
       </c>
     </row>
     <row r="54">
@@ -2228,29 +2399,29 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="D54"/>
       <c r="E54">
-        <v>0.99992000000000003</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F54">
-        <v>98795786.958443999</v>
+        <v>45065027.677001603</v>
       </c>
       <c r="G54">
-        <v>0.0099070860253584105</v>
+        <v>0.176289402933067</v>
       </c>
       <c r="H54">
-        <v>176101297.24005201</v>
+        <v>78379273.480058506</v>
       </c>
       <c r="I54">
-        <v>102266895.95097201</v>
+        <v>46389868.929789498</v>
       </c>
       <c r="J54">
-        <v>1.78247780256181</v>
+        <v>1.73924831560813</v>
       </c>
     </row>
     <row r="55">
@@ -2258,29 +2429,29 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="D55"/>
       <c r="E55">
-        <v>0.99992999999999999</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F55">
-        <v>106171495.515085</v>
+        <v>48075276.6401264</v>
       </c>
       <c r="G55">
-        <v>0.0091879211529120493</v>
+        <v>0.164696142038291</v>
       </c>
       <c r="H55">
-        <v>186649068.85284501</v>
+        <v>82377949.048842102</v>
       </c>
       <c r="I55">
-        <v>111138066.892151</v>
+        <v>50437808.533600003</v>
       </c>
       <c r="J55">
-        <v>1.75799604166192</v>
+        <v>1.7135200212261401</v>
       </c>
     </row>
     <row r="56">
@@ -2288,29 +2459,29 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="D56"/>
       <c r="E56">
-        <v>0.99994000000000005</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F56">
-        <v>116747741.22825</v>
+        <v>52987756.238633797</v>
       </c>
       <c r="G56">
-        <v>0.0084063721193140695</v>
+        <v>0.152091263283928</v>
       </c>
       <c r="H56">
-        <v>199234235.846223</v>
+        <v>86940826.265305296</v>
       </c>
       <c r="I56">
-        <v>123910665.825105</v>
+        <v>54957021.921140499</v>
       </c>
       <c r="J56">
-        <v>1.70653610725287</v>
+        <v>1.6407719903020901</v>
       </c>
     </row>
     <row r="57">
@@ -2318,29 +2489,29 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="D57"/>
       <c r="E57">
-        <v>0.99995000000000001</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F57">
-        <v>131994232.58960301</v>
+        <v>56111581.824185498</v>
       </c>
       <c r="G57">
-        <v>0.0075350031650282499</v>
+        <v>0.13835699095614901</v>
       </c>
       <c r="H57">
-        <v>214298949.850548</v>
+        <v>92271460.322666094</v>
       </c>
       <c r="I57">
-        <v>142193627.26952201</v>
+        <v>56478448.009863503</v>
       </c>
       <c r="J57">
-        <v>1.6235478296756201</v>
+        <v>1.64442807211852</v>
       </c>
     </row>
     <row r="58">
@@ -2348,29 +2519,29 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="D58"/>
       <c r="E58">
-        <v>0.99995999999999996</v>
+        <v>0.995</v>
       </c>
       <c r="F58">
-        <v>153550121.18184999</v>
+        <v>57221583.569813497</v>
       </c>
       <c r="G58">
-        <v>0.0065350641244821097</v>
+        <v>0.124242500059411</v>
       </c>
       <c r="H58">
-        <v>232325280.495702</v>
+        <v>99430062.785226598</v>
       </c>
       <c r="I58">
-        <v>167023827.750411</v>
+        <v>60466226.447362401</v>
       </c>
       <c r="J58">
-        <v>1.51302570592282</v>
+        <v>1.73763214126915</v>
       </c>
     </row>
     <row r="59">
@@ -2378,29 +2549,29 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="D59"/>
       <c r="E59">
-        <v>0.99997000000000003</v>
+        <v>0.996</v>
       </c>
       <c r="F59">
-        <v>181127918.99035299</v>
+        <v>65655593.5023093</v>
       </c>
       <c r="G59">
-        <v>0.0053605132724068904</v>
+        <v>0.109131426139633</v>
       </c>
       <c r="H59">
-        <v>254092431.41063699</v>
+        <v>109171021.869693</v>
       </c>
       <c r="I59">
-        <v>194976223.607595</v>
+        <v>72460564.028104097</v>
       </c>
       <c r="J59">
-        <v>1.40283415625269</v>
+        <v>1.6627832610461899</v>
       </c>
     </row>
     <row r="60">
@@ -2408,29 +2579,29 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C60" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="D60"/>
       <c r="E60">
-        <v>0.99997999999999998</v>
+        <v>0.997</v>
       </c>
       <c r="F60">
-        <v>209991182.35636199</v>
+        <v>77239960.206421405</v>
       </c>
       <c r="G60">
-        <v>0.0039893945963491899</v>
+        <v>0.091022855394760599</v>
       </c>
       <c r="H60">
-        <v>283650535.31232601</v>
+        <v>121407841.150222</v>
       </c>
       <c r="I60">
-        <v>231555462.85092801</v>
+        <v>80972613.974720597</v>
       </c>
       <c r="J60">
-        <v>1.3507735521530699</v>
+        <v>1.57182682157996</v>
       </c>
     </row>
     <row r="61">
@@ -2438,29 +2609,599 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="D61"/>
       <c r="E61">
+        <v>0.998</v>
+      </c>
+      <c r="F61">
+        <v>84705267.743018597</v>
+      </c>
+      <c r="G61">
+        <v>0.070787043981676401</v>
+      </c>
+      <c r="H61">
+        <v>141625454.737973</v>
+      </c>
+      <c r="I61">
+        <v>88437921.511316493</v>
+      </c>
+      <c r="J61">
+        <v>1.67197930555678</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" t="s">
+        <v>221</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62">
+        <v>0.999</v>
+      </c>
+      <c r="F62">
+        <v>92170575.279615596</v>
+      </c>
+      <c r="G62">
+        <v>0.048685582590953999</v>
+      </c>
+      <c r="H62">
+        <v>194812987.96462899</v>
+      </c>
+      <c r="I62">
+        <v>93083665.255872697</v>
+      </c>
+      <c r="J62">
+        <v>2.11361367088824</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" t="s">
+        <v>222</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F63">
+        <v>97354464.797796205</v>
+      </c>
+      <c r="G63">
+        <v>0.046359334982911601</v>
+      </c>
+      <c r="H63">
+        <v>206116246.043378</v>
+      </c>
+      <c r="I63">
+        <v>106846503.580791</v>
+      </c>
+      <c r="J63">
+        <v>2.1171730179142698</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>223</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="F64">
+        <v>116338542.363777</v>
+      </c>
+      <c r="G64">
+        <v>0.043689141209393302</v>
+      </c>
+      <c r="H64">
+        <v>218524963.851201</v>
+      </c>
+      <c r="I64">
+        <v>125830581.14676701</v>
+      </c>
+      <c r="J64">
+        <v>1.8783539780642899</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" t="s">
+        <v>224</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="F65">
+        <v>135322619.929757</v>
+      </c>
+      <c r="G65">
+        <v>0.040544517632242399</v>
+      </c>
+      <c r="H65">
+        <v>231767018.52326</v>
+      </c>
+      <c r="I65">
+        <v>144814658.71274301</v>
+      </c>
+      <c r="J65">
+        <v>1.71269975886933</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F66">
+        <v>154306697.49573699</v>
+      </c>
+      <c r="G66">
+        <v>0.036925464251458803</v>
+      </c>
+      <c r="H66">
+        <v>246259078.49167699</v>
+      </c>
+      <c r="I66">
+        <v>163798736.27871799</v>
+      </c>
+      <c r="J66">
+        <v>1.5959066099414101</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" t="s">
+        <v>226</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F67">
+        <v>173290775.061717</v>
+      </c>
+      <c r="G67">
+        <v>0.032831981067042701</v>
+      </c>
+      <c r="H67">
+        <v>262751146.93426499</v>
+      </c>
+      <c r="I67">
+        <v>182759816.00332901</v>
+      </c>
+      <c r="J67">
+        <v>1.5162442827131799</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F68">
+        <v>191932094.60358599</v>
+      </c>
+      <c r="G68">
+        <v>0.0282646428164985</v>
+      </c>
+      <c r="H68">
+        <v>282748979.66699302</v>
+      </c>
+      <c r="I68">
+        <v>201288617.44701099</v>
+      </c>
+      <c r="J68">
+        <v>1.47317195829587</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" t="s">
+        <v>228</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F69">
+        <v>211852914.34864199</v>
+      </c>
+      <c r="G69">
+        <v>0.0232342525372198</v>
+      </c>
+      <c r="H69">
+        <v>309902433.74035102</v>
+      </c>
+      <c r="I69">
+        <v>225938657.116961</v>
+      </c>
+      <c r="J69">
+        <v>1.4628188368008499</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" t="s">
+        <v>229</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F70">
+        <v>242652444.57986</v>
+      </c>
+      <c r="G70">
+        <v>0.0175878347770482</v>
+      </c>
+      <c r="H70">
+        <v>351884322.05204701</v>
+      </c>
+      <c r="I70">
+        <v>268730366.23065698</v>
+      </c>
+      <c r="J70">
+        <v>1.45015774582991</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" t="s">
+        <v>230</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F71">
+        <v>303657389.31105399</v>
+      </c>
+      <c r="G71">
+        <v>0.010872012296981299</v>
+      </c>
+      <c r="H71">
+        <v>435038277.87343597</v>
+      </c>
+      <c r="I71">
+        <v>308692463.20958501</v>
+      </c>
+      <c r="J71">
+        <v>1.4326615889719101</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" t="s">
+        <v>231</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="F72">
+        <v>313956517.74953097</v>
+      </c>
+      <c r="G72">
+        <v>0.010100561041613399</v>
+      </c>
+      <c r="H72">
+        <v>449076701.72490299</v>
+      </c>
+      <c r="I72">
+        <v>319739547.90583903</v>
+      </c>
+      <c r="J72">
+        <v>1.4303786554390601</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73">
+        <v>0.99992000000000003</v>
+      </c>
+      <c r="F73">
+        <v>325817357.44507098</v>
+      </c>
+      <c r="G73">
+        <v>0.0093015020912975803</v>
+      </c>
+      <c r="H73">
+        <v>465243845.95220101</v>
+      </c>
+      <c r="I73">
+        <v>332573760.061032</v>
+      </c>
+      <c r="J73">
+        <v>1.4279283633028601</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" t="s">
+        <v>233</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="F74">
+        <v>339721912.431364</v>
+      </c>
+      <c r="G74">
+        <v>0.0084703692478301697</v>
+      </c>
+      <c r="H74">
+        <v>484196715.36534297</v>
+      </c>
+      <c r="I74">
+        <v>347790130.54984099</v>
+      </c>
+      <c r="J74">
+        <v>1.4252737243234701</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="F75">
+        <v>356400766.50270098</v>
+      </c>
+      <c r="G75">
+        <v>0.00760120927538526</v>
+      </c>
+      <c r="H75">
+        <v>506931146.167804</v>
+      </c>
+      <c r="I75">
+        <v>366319829.50345802</v>
+      </c>
+      <c r="J75">
+        <v>1.42236267093989</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="F76">
+        <v>377032342.03512597</v>
+      </c>
+      <c r="G76">
+        <v>0.0066857418570963403</v>
+      </c>
+      <c r="H76">
+        <v>535053409.50085503</v>
+      </c>
+      <c r="I76">
+        <v>389731935.01639402</v>
+      </c>
+      <c r="J76">
+        <v>1.4191180698525001</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" t="s">
+        <v>236</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="F77">
+        <v>403685699.74842203</v>
+      </c>
+      <c r="G77">
+        <v>0.00571176540364086</v>
+      </c>
+      <c r="H77">
+        <v>571383778.12177598</v>
+      </c>
+      <c r="I77">
+        <v>420963003.412718</v>
+      </c>
+      <c r="J77">
+        <v>1.41541743608422</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="F78">
+        <v>440470524.38218701</v>
+      </c>
+      <c r="G78">
+        <v>0.0046597395975372996</v>
+      </c>
+      <c r="H78">
+        <v>621524036.35775197</v>
+      </c>
+      <c r="I78">
+        <v>466480577.392335</v>
+      </c>
+      <c r="J78">
+        <v>1.41104569307904</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F79">
+        <v>497343450.941966</v>
+      </c>
+      <c r="G79">
+        <v>0.0034939611289075</v>
+      </c>
+      <c r="H79">
+        <v>699045765.84088302</v>
+      </c>
+      <c r="I79">
+        <v>545497682.89702404</v>
+      </c>
+      <c r="J79">
+        <v>1.40555940671762</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" t="s">
+        <v>239</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F61">
-        <v>259070183.330199</v>
-      </c>
-      <c r="G61">
-        <v>0.0023610421040290599</v>
-      </c>
-      <c r="H61">
-        <v>335745607.77313799</v>
-      </c>
-      <c r="I61">
-        <v>335745607.77314401</v>
-      </c>
-      <c r="J61">
-        <v>1.2959639100776501</v>
+      <c r="F80">
+        <v>609992238.61466396</v>
+      </c>
+      <c r="G80">
+        <v>0.0021307115442054298</v>
+      </c>
+      <c r="H80">
+        <v>852593848.783059</v>
+      </c>
+      <c r="I80">
+        <v>852593848.78305197</v>
+      </c>
+      <c r="J80">
+        <v>1.39771261798242</v>
       </c>
     </row>
   </sheetData>
